--- a/tables/Dataset_variable_lists.xlsx
+++ b/tables/Dataset_variable_lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ni3054ch\Work Folders\Documents\register_reloc_age\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D1C2D-1B3D-48DE-AB87-FAD087A26CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB761B40-EFB4-45D3-95D3-A16B58EB5A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="668">
   <si>
     <t>KAP19</t>
   </si>
@@ -2002,7 +2002,34 @@
     <t>LISA, housing, and constructed vars</t>
   </si>
   <si>
-    <t>xxx</t>
+    <t>no_hosptial_stays</t>
+  </si>
+  <si>
+    <t>open_vard_no_visits</t>
+  </si>
+  <si>
+    <t>clean/open_vard/transformed_data/number_of_visits</t>
+  </si>
+  <si>
+    <t>number of outpatient visits (yearly)</t>
+  </si>
+  <si>
+    <t>Antal öppenvårdsbesök (årligen)</t>
+  </si>
+  <si>
+    <t>Openvård - transformed</t>
+  </si>
+  <si>
+    <t>This variable counts the number of entries an individual has each year in the openvård data set. Details can be found here: [visits](#visits)</t>
+  </si>
+  <si>
+    <t>lop_nr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ar </t>
+  </si>
+  <si>
+    <t>Id number</t>
   </si>
 </sst>
 </file>
@@ -2373,10 +2400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E10C4C-262F-4490-9747-CFF1F93D48D6}">
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C202" workbookViewId="0">
-      <selection activeCell="G218" sqref="G218"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2385,7 +2413,7 @@
     <col min="2" max="3" width="35.109375" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.44140625" bestFit="1" customWidth="1"/>
@@ -5725,7 +5753,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>665</v>
       </c>
       <c r="B105" t="s">
         <v>251</v>
@@ -8743,34 +8771,127 @@
         <v>260</v>
       </c>
       <c r="B208" t="s">
+        <v>653</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="D208" t="s">
+        <v>655</v>
+      </c>
+      <c r="E208" t="s">
+        <v>656</v>
+      </c>
+      <c r="F208" t="s">
         <v>652</v>
-      </c>
-      <c r="C208" t="s">
-        <v>653</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E208" t="s">
-        <v>655</v>
-      </c>
-      <c r="F208" t="s">
-        <v>656</v>
       </c>
       <c r="G208" t="s">
         <v>657</v>
       </c>
       <c r="H208" t="s">
-        <v>658</v>
+        <v>277</v>
       </c>
       <c r="I208" t="s">
-        <v>658</v>
+        <v>277</v>
       </c>
       <c r="J208" t="s">
-        <v>658</v>
+        <v>277</v>
       </c>
       <c r="K208" t="s">
         <v>645</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>658</v>
+      </c>
+      <c r="B209" t="s">
+        <v>662</v>
+      </c>
+      <c r="C209" t="s">
+        <v>661</v>
+      </c>
+      <c r="D209" t="s">
+        <v>660</v>
+      </c>
+      <c r="E209" t="s">
+        <v>656</v>
+      </c>
+      <c r="F209" t="s">
+        <v>659</v>
+      </c>
+      <c r="G209" t="s">
+        <v>663</v>
+      </c>
+      <c r="H209">
+        <v>29313673</v>
+      </c>
+      <c r="I209" t="s">
+        <v>277</v>
+      </c>
+      <c r="J209" t="s">
+        <v>277</v>
+      </c>
+      <c r="K209" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>665</v>
+      </c>
+      <c r="B210" t="s">
+        <v>251</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D210" t="s">
+        <v>660</v>
+      </c>
+      <c r="E210" t="s">
+        <v>656</v>
+      </c>
+      <c r="F210" t="s">
+        <v>659</v>
+      </c>
+      <c r="G210" t="s">
+        <v>663</v>
+      </c>
+      <c r="H210">
+        <v>29313673</v>
+      </c>
+      <c r="I210" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>666</v>
+      </c>
+      <c r="B211" t="s">
+        <v>105</v>
+      </c>
+      <c r="C211" t="s">
+        <v>512</v>
+      </c>
+      <c r="D211" t="s">
+        <v>660</v>
+      </c>
+      <c r="E211" t="s">
+        <v>656</v>
+      </c>
+      <c r="F211" t="s">
+        <v>659</v>
+      </c>
+      <c r="G211" t="s">
+        <v>663</v>
+      </c>
+      <c r="H211">
+        <v>29313673</v>
+      </c>
+      <c r="I211" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Dataset_variable_lists.xlsx
+++ b/tables/Dataset_variable_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ni3054ch\Work Folders\Documents\register_reloc_age\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB761B40-EFB4-45D3-95D3-A16B58EB5A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52DD4CC-FB00-4746-9A01-9BEEECD360A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
+    <workbookView xWindow="-5040" yWindow="-21708" windowWidth="38616" windowHeight="21216" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2087" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="761">
   <si>
     <t>KAP19</t>
   </si>
@@ -2011,9 +2011,6 @@
     <t>clean/open_vard/transformed_data/number_of_visits</t>
   </si>
   <si>
-    <t>number of outpatient visits (yearly)</t>
-  </si>
-  <si>
     <t>Antal öppenvårdsbesök (årligen)</t>
   </si>
   <si>
@@ -2030,13 +2027,295 @@
   </si>
   <si>
     <t>Id number</t>
+  </si>
+  <si>
+    <t>clean/sluted_vard/transformed_data/number_of_stays</t>
+  </si>
+  <si>
+    <t>sluten_number_of_stays</t>
+  </si>
+  <si>
+    <t>Number of inpatient stays a year per individual.  Back to back visits counted as one.</t>
+  </si>
+  <si>
+    <t>roll_stays_last_3</t>
+  </si>
+  <si>
+    <t>Number of hospital stays over the year</t>
+  </si>
+  <si>
+    <t>Number of hospital stays over the previous 3yrs</t>
+  </si>
+  <si>
+    <t>Number of hospital stays over the previous 5yrs</t>
+  </si>
+  <si>
+    <t>roll_stays_last_5</t>
+  </si>
+  <si>
+    <t>Antal sjukhusvistelser under året</t>
+  </si>
+  <si>
+    <t>Antal sjukhusvistelser under de föregående 3 år</t>
+  </si>
+  <si>
+    <t>Antal sjukhusvistelser under de föregående 5 år</t>
+  </si>
+  <si>
+    <t>This variable counts the number of hospitalizations an individual has had in the previous 3yrs. Details can be found here: [visits](#visits)</t>
+  </si>
+  <si>
+    <t>This variable counts the number of hospitalizations an individual has had in the previous 5yrs. Details can be found here: [visits](#visits)</t>
+  </si>
+  <si>
+    <t>Dataset with key variables of LISA and housing dataset matched on index participants.</t>
+  </si>
+  <si>
+    <t>This is a full dataset containing many key socio-demographic and housing varibles of indexed participants,offering a strong starting point for building a specific dataset for a research project.</t>
+  </si>
+  <si>
+    <t>number of outpatient stays (yearly)</t>
+  </si>
+  <si>
+    <t>no_hosptial_visits</t>
+  </si>
+  <si>
+    <t>This variable counts the number of entries an individual has each year in the slutenvård data set. Details can be found here: [visits](#visits)</t>
+  </si>
+  <si>
+    <t>clean/housing</t>
+  </si>
+  <si>
+    <t>Fastlopnr</t>
+  </si>
+  <si>
+    <t>Fastighetsbeteckning löpnumrerad</t>
+  </si>
+  <si>
+    <t>Fastighetsregistret</t>
+  </si>
+  <si>
+    <t>Lghlopnr</t>
+  </si>
+  <si>
+    <t>Lägenhetsnummer löpnumrerad</t>
+  </si>
+  <si>
+    <t>Lägenhetsregistret</t>
+  </si>
+  <si>
+    <t>Entrelopnr</t>
+  </si>
+  <si>
+    <t>Entré-ID löpnumrerad</t>
+  </si>
+  <si>
+    <t>Län</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kommun </t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>År (2012-2019)</t>
+  </si>
+  <si>
+    <t>TYPBEBYGG</t>
+  </si>
+  <si>
+    <t>Byggnadsändamål /en kategorisering av byggnadsändamålet i bostad, industri, samhällsfunktion, verksamhet m.m.</t>
+  </si>
+  <si>
+    <t>BYGGTYP</t>
+  </si>
+  <si>
+    <t>Detaljerat Byggnadsändamål /en kategorisering av byggnadsändamålet i t.ex. i friliggande småhus, kedjehus, radhus, småhus med flera lägenheter eller flerfamiljshus m.m.</t>
+  </si>
+  <si>
+    <t>SCB_Bostkat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bostadskategori/Hustyp enligt kategorierna småhus, flerbostadshus, specialbostäder och övriga hus </t>
+  </si>
+  <si>
+    <t>SCB_Byggar</t>
+  </si>
+  <si>
+    <t>Byggnadsår. Normalt lika med byggnadens nybyggnadsår, d.v.s. det år byggnaden uppfördes, men kan även innehålla värdeår i de fall byggnadsår saknas</t>
+  </si>
+  <si>
+    <t>LGHKAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lägenhetskategori / Vanlig bostadslägenhet, Specialbostad för äldre eller funktionshindrade, Studentbostad eller Övrig specialbostad </t>
+  </si>
+  <si>
+    <t>BOAREA</t>
+  </si>
+  <si>
+    <t>Lägenhetens bostadsarea i kvm / Floor space</t>
+  </si>
+  <si>
+    <t>SCB_Upplatform</t>
+  </si>
+  <si>
+    <t>Upplåtelseform / Type of tenure / Hyresrätt, Bostadsrätt eller Äganderätt</t>
+  </si>
+  <si>
+    <t>KOKTYP</t>
+  </si>
+  <si>
+    <t>Kökstyp / Kitchen type</t>
+  </si>
+  <si>
+    <t>ANTRUM</t>
+  </si>
+  <si>
+    <t>Antal rum / Number of rooms</t>
+  </si>
+  <si>
+    <t>Tatort</t>
+  </si>
+  <si>
+    <t>Tätort</t>
+  </si>
+  <si>
+    <t>Geografidatabasen</t>
+  </si>
+  <si>
+    <t>Smaort</t>
+  </si>
+  <si>
+    <t>Småort</t>
+  </si>
+  <si>
+    <t>DeSO</t>
+  </si>
+  <si>
+    <t>Distrikt (Distriktsindelningen gäller från den 1 januari 2016)</t>
+  </si>
+  <si>
+    <t>XKOORD</t>
+  </si>
+  <si>
+    <t>Sweref mediankoordinat X för fastighet</t>
+  </si>
+  <si>
+    <t>YKOORD</t>
+  </si>
+  <si>
+    <t>Sweref mediankoordinat Y för fastighet</t>
+  </si>
+  <si>
+    <t>TOTAR</t>
+  </si>
+  <si>
+    <t>Fastighetens totala areal i kvadratmeter</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Municipality</t>
+  </si>
+  <si>
+    <t>Year (2012-2019)</t>
+  </si>
+  <si>
+    <t>housing</t>
+  </si>
+  <si>
+    <t>Dataset with key housing varaiables</t>
+  </si>
+  <si>
+    <t>Real estate designation run</t>
+  </si>
+  <si>
+    <t>Apartment number running</t>
+  </si>
+  <si>
+    <t>Entrance ID running</t>
+  </si>
+  <si>
+    <t>Building purposes /a categorization of the building purposes in housing, industry, social function, activities, etc.</t>
+  </si>
+  <si>
+    <t>Detailed building purposes/a categorization of the building purpose in e.g. In detached detached houses, chain houses, townhouses, detached houses with several apartments or multi -family houses and more.</t>
+  </si>
+  <si>
+    <t>Housing category/house type according to the categories of small houses, apartment buildings, special housing and other houses</t>
+  </si>
+  <si>
+    <t>Construction year. Normally equal to the building's new construction year, i.e. the year the building was erected, but may also contain value years in cases where construction years are missing</t>
+  </si>
+  <si>
+    <t>Apartment category / regular residential apartment, special residence for the elderly or disabled, student housing or other special housing</t>
+  </si>
+  <si>
+    <t>The apartment's residential area in KVM / FLOOR SPACE</t>
+  </si>
+  <si>
+    <t>Form of lease / Type of tenure / tenancy, tenancy or ownership</t>
+  </si>
+  <si>
+    <t>Kitchen type / Kitchen Type</t>
+  </si>
+  <si>
+    <t>Number of rooms / Number of Rooms</t>
+  </si>
+  <si>
+    <t>Urban area</t>
+  </si>
+  <si>
+    <t>Small town</t>
+  </si>
+  <si>
+    <t>Deso</t>
+  </si>
+  <si>
+    <t>District (District division is valid from January 1, 2016)</t>
+  </si>
+  <si>
+    <t>SWEREF MEDIANCOORDINAT X for real estate</t>
+  </si>
+  <si>
+    <t>SWEREF MEDIANCOORDINAT Y for real estate</t>
+  </si>
+  <si>
+    <t>The property's total area of ​​square meters</t>
+  </si>
+  <si>
+    <t>https://www.lantmateriet.se/lagenhetsregistret</t>
+  </si>
+  <si>
+    <t>https://metadata.scb.se/mikrodataregister.aspx?produkt=OV0100</t>
+  </si>
+  <si>
+    <t>https://metadata.scb.se/mikrodataregister.aspx?produkt=OV0101</t>
+  </si>
+  <si>
+    <t>https://metadata.scb.se/mikrodataregister.aspx?produkt=OV0102</t>
+  </si>
+  <si>
+    <t>https://metadata.scb.se/mikrodataregister.aspx?produkt=OV0103</t>
+  </si>
+  <si>
+    <t>https://metadata.scb.se/mikrodataregister.aspx?produkt=OV0104</t>
+  </si>
+  <si>
+    <t>https://metadata.scb.se/mikrodataregister.aspx?produkt=OV0105</t>
+  </si>
+  <si>
+    <t>https://www.lantmateriet.se/sv/fastighet-och-mark/information-om-fastigheter/Fastighetsregistret/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2056,6 +2335,24 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2074,10 +2371,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2086,9 +2384,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{FC87A3E6-C9C7-4734-BE05-F2FD572C016E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2400,19 +2717,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E10C4C-262F-4490-9747-CFF1F93D48D6}">
-  <dimension ref="A1:K211"/>
+  <dimension ref="A1:K239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D218" sqref="D218"/>
+      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I232" sqref="I232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="35.109375" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -5753,7 +6070,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B105" t="s">
         <v>251</v>
@@ -8803,13 +9120,13 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="B209" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C209" t="s">
-        <v>661</v>
+        <v>682</v>
       </c>
       <c r="D209" t="s">
         <v>660</v>
@@ -8821,7 +9138,7 @@
         <v>659</v>
       </c>
       <c r="G209" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H209">
         <v>29313673</v>
@@ -8833,18 +9150,18 @@
         <v>277</v>
       </c>
       <c r="K209" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B210" t="s">
         <v>251</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D210" t="s">
         <v>660</v>
@@ -8856,7 +9173,7 @@
         <v>659</v>
       </c>
       <c r="G210" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H210">
         <v>29313673</v>
@@ -8864,10 +9181,13 @@
       <c r="I210" t="s">
         <v>277</v>
       </c>
+      <c r="J210" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B211" t="s">
         <v>105</v>
@@ -8885,7 +9205,7 @@
         <v>659</v>
       </c>
       <c r="G211" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H211">
         <v>29313673</v>
@@ -8893,8 +9213,803 @@
       <c r="I211" t="s">
         <v>277</v>
       </c>
+      <c r="J211" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>664</v>
+      </c>
+      <c r="B212" t="s">
+        <v>251</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D212" t="s">
+        <v>667</v>
+      </c>
+      <c r="E212" t="s">
+        <v>656</v>
+      </c>
+      <c r="F212" t="s">
+        <v>668</v>
+      </c>
+      <c r="G212" t="s">
+        <v>669</v>
+      </c>
+      <c r="I212" t="s">
+        <v>277</v>
+      </c>
+      <c r="J212" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>665</v>
+      </c>
+      <c r="B213" t="s">
+        <v>105</v>
+      </c>
+      <c r="C213" t="s">
+        <v>512</v>
+      </c>
+      <c r="D213" t="s">
+        <v>667</v>
+      </c>
+      <c r="E213" t="s">
+        <v>656</v>
+      </c>
+      <c r="F213" t="s">
+        <v>668</v>
+      </c>
+      <c r="G213" t="s">
+        <v>669</v>
+      </c>
+      <c r="I213" t="s">
+        <v>277</v>
+      </c>
+      <c r="J213" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>658</v>
+      </c>
+      <c r="B214" t="s">
+        <v>675</v>
+      </c>
+      <c r="C214" t="s">
+        <v>671</v>
+      </c>
+      <c r="D214" t="s">
+        <v>667</v>
+      </c>
+      <c r="E214" t="s">
+        <v>656</v>
+      </c>
+      <c r="F214" t="s">
+        <v>668</v>
+      </c>
+      <c r="G214" t="s">
+        <v>669</v>
+      </c>
+      <c r="I214" t="s">
+        <v>277</v>
+      </c>
+      <c r="J214" t="s">
+        <v>277</v>
+      </c>
+      <c r="K214" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>670</v>
+      </c>
+      <c r="B215" t="s">
+        <v>676</v>
+      </c>
+      <c r="C215" t="s">
+        <v>672</v>
+      </c>
+      <c r="D215" t="s">
+        <v>667</v>
+      </c>
+      <c r="E215" t="s">
+        <v>656</v>
+      </c>
+      <c r="F215" t="s">
+        <v>668</v>
+      </c>
+      <c r="G215" t="s">
+        <v>669</v>
+      </c>
+      <c r="I215" t="s">
+        <v>277</v>
+      </c>
+      <c r="J215" t="s">
+        <v>277</v>
+      </c>
+      <c r="K215" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>674</v>
+      </c>
+      <c r="B216" t="s">
+        <v>677</v>
+      </c>
+      <c r="C216" t="s">
+        <v>673</v>
+      </c>
+      <c r="D216" t="s">
+        <v>667</v>
+      </c>
+      <c r="E216" t="s">
+        <v>656</v>
+      </c>
+      <c r="F216" t="s">
+        <v>668</v>
+      </c>
+      <c r="G216" t="s">
+        <v>669</v>
+      </c>
+      <c r="J216" t="s">
+        <v>277</v>
+      </c>
+      <c r="K216" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D217" t="s">
+        <v>655</v>
+      </c>
+      <c r="E217" t="s">
+        <v>656</v>
+      </c>
+      <c r="F217" t="s">
+        <v>652</v>
+      </c>
+      <c r="G217" t="s">
+        <v>680</v>
+      </c>
+      <c r="J217" t="s">
+        <v>277</v>
+      </c>
+      <c r="K217" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A218" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="C218" t="s">
+        <v>734</v>
+      </c>
+      <c r="D218" t="s">
+        <v>685</v>
+      </c>
+      <c r="E218" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F218" t="s">
+        <v>732</v>
+      </c>
+      <c r="G218" t="s">
+        <v>733</v>
+      </c>
+      <c r="H218">
+        <v>29628296</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="C219" t="s">
+        <v>735</v>
+      </c>
+      <c r="D219" t="s">
+        <v>685</v>
+      </c>
+      <c r="E219" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F219" t="s">
+        <v>732</v>
+      </c>
+      <c r="G219" t="s">
+        <v>733</v>
+      </c>
+      <c r="H219">
+        <v>29628296</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>692</v>
+      </c>
+      <c r="B220" t="s">
+        <v>693</v>
+      </c>
+      <c r="C220" t="s">
+        <v>736</v>
+      </c>
+      <c r="D220" t="s">
+        <v>685</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F220" t="s">
+        <v>732</v>
+      </c>
+      <c r="G220" t="s">
+        <v>733</v>
+      </c>
+      <c r="H220">
+        <v>29628296</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C221" t="s">
+        <v>729</v>
+      </c>
+      <c r="D221" t="s">
+        <v>685</v>
+      </c>
+      <c r="E221" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F221" t="s">
+        <v>732</v>
+      </c>
+      <c r="G221" t="s">
+        <v>733</v>
+      </c>
+      <c r="H221">
+        <v>29628296</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A222" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C222" t="s">
+        <v>730</v>
+      </c>
+      <c r="D222" t="s">
+        <v>685</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F222" t="s">
+        <v>732</v>
+      </c>
+      <c r="G222" t="s">
+        <v>733</v>
+      </c>
+      <c r="H222">
+        <v>29628296</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A223" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B223" t="s">
+        <v>697</v>
+      </c>
+      <c r="C223" t="s">
+        <v>731</v>
+      </c>
+      <c r="D223" t="s">
+        <v>685</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F223" t="s">
+        <v>732</v>
+      </c>
+      <c r="G223" t="s">
+        <v>733</v>
+      </c>
+      <c r="H223">
+        <v>29628296</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C224" t="s">
+        <v>737</v>
+      </c>
+      <c r="D224" t="s">
+        <v>685</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F224" t="s">
+        <v>732</v>
+      </c>
+      <c r="G224" t="s">
+        <v>733</v>
+      </c>
+      <c r="H224">
+        <v>29628296</v>
+      </c>
+      <c r="J224" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" ht="66.599999999999994" x14ac:dyDescent="0.3">
+      <c r="A225" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="C225" t="s">
+        <v>738</v>
+      </c>
+      <c r="D225" t="s">
+        <v>685</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F225" t="s">
+        <v>732</v>
+      </c>
+      <c r="G225" t="s">
+        <v>733</v>
+      </c>
+      <c r="H225">
+        <v>29628296</v>
+      </c>
+      <c r="J225" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A226" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C226" t="s">
+        <v>739</v>
+      </c>
+      <c r="D226" t="s">
+        <v>685</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F226" t="s">
+        <v>732</v>
+      </c>
+      <c r="G226" t="s">
+        <v>733</v>
+      </c>
+      <c r="H226">
+        <v>29628296</v>
+      </c>
+      <c r="J226" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A227" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C227" t="s">
+        <v>740</v>
+      </c>
+      <c r="D227" t="s">
+        <v>685</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F227" t="s">
+        <v>732</v>
+      </c>
+      <c r="G227" t="s">
+        <v>733</v>
+      </c>
+      <c r="H227">
+        <v>29628296</v>
+      </c>
+      <c r="J227" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A228" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C228" t="s">
+        <v>741</v>
+      </c>
+      <c r="D228" t="s">
+        <v>685</v>
+      </c>
+      <c r="E228" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F228" t="s">
+        <v>732</v>
+      </c>
+      <c r="G228" t="s">
+        <v>733</v>
+      </c>
+      <c r="H228">
+        <v>29628296</v>
+      </c>
+      <c r="J228" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C229" t="s">
+        <v>742</v>
+      </c>
+      <c r="D229" t="s">
+        <v>685</v>
+      </c>
+      <c r="E229" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F229" t="s">
+        <v>732</v>
+      </c>
+      <c r="G229" t="s">
+        <v>733</v>
+      </c>
+      <c r="H229">
+        <v>29628296</v>
+      </c>
+      <c r="J229" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A230" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C230" t="s">
+        <v>743</v>
+      </c>
+      <c r="D230" t="s">
+        <v>685</v>
+      </c>
+      <c r="E230" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F230" t="s">
+        <v>732</v>
+      </c>
+      <c r="G230" t="s">
+        <v>733</v>
+      </c>
+      <c r="H230">
+        <v>29628296</v>
+      </c>
+      <c r="J230" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C231" t="s">
+        <v>744</v>
+      </c>
+      <c r="D231" t="s">
+        <v>685</v>
+      </c>
+      <c r="E231" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F231" t="s">
+        <v>732</v>
+      </c>
+      <c r="G231" t="s">
+        <v>733</v>
+      </c>
+      <c r="H231">
+        <v>29628296</v>
+      </c>
+      <c r="J231" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="C232" t="s">
+        <v>745</v>
+      </c>
+      <c r="D232" t="s">
+        <v>685</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="F232" t="s">
+        <v>732</v>
+      </c>
+      <c r="G232" t="s">
+        <v>733</v>
+      </c>
+      <c r="H232">
+        <v>29628296</v>
+      </c>
+      <c r="J232" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C233" t="s">
+        <v>746</v>
+      </c>
+      <c r="D233" t="s">
+        <v>685</v>
+      </c>
+      <c r="E233" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F233" t="s">
+        <v>732</v>
+      </c>
+      <c r="G233" t="s">
+        <v>733</v>
+      </c>
+      <c r="H233">
+        <v>29628296</v>
+      </c>
+      <c r="J233" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C234" t="s">
+        <v>747</v>
+      </c>
+      <c r="D234" t="s">
+        <v>685</v>
+      </c>
+      <c r="E234" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F234" t="s">
+        <v>732</v>
+      </c>
+      <c r="G234" t="s">
+        <v>733</v>
+      </c>
+      <c r="H234">
+        <v>29628296</v>
+      </c>
+      <c r="J234" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C235" t="s">
+        <v>748</v>
+      </c>
+      <c r="D235" t="s">
+        <v>685</v>
+      </c>
+      <c r="E235" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F235" t="s">
+        <v>732</v>
+      </c>
+      <c r="G235" t="s">
+        <v>733</v>
+      </c>
+      <c r="H235">
+        <v>29628296</v>
+      </c>
+      <c r="J235" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="C236" t="s">
+        <v>749</v>
+      </c>
+      <c r="D236" t="s">
+        <v>685</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F236" t="s">
+        <v>732</v>
+      </c>
+      <c r="G236" t="s">
+        <v>733</v>
+      </c>
+      <c r="H236">
+        <v>29628296</v>
+      </c>
+      <c r="J236" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="B237" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="C237" t="s">
+        <v>750</v>
+      </c>
+      <c r="D237" t="s">
+        <v>685</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F237" t="s">
+        <v>732</v>
+      </c>
+      <c r="G237" t="s">
+        <v>733</v>
+      </c>
+      <c r="H237">
+        <v>29628296</v>
+      </c>
+      <c r="J237" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="B238" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="C238" t="s">
+        <v>751</v>
+      </c>
+      <c r="D238" t="s">
+        <v>685</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F238" t="s">
+        <v>732</v>
+      </c>
+      <c r="G238" t="s">
+        <v>733</v>
+      </c>
+      <c r="H238">
+        <v>29628296</v>
+      </c>
+      <c r="J238" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C239" t="s">
+        <v>752</v>
+      </c>
+      <c r="D239" t="s">
+        <v>685</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F239" t="s">
+        <v>732</v>
+      </c>
+      <c r="G239" t="s">
+        <v>733</v>
+      </c>
+      <c r="H239">
+        <v>29628296</v>
+      </c>
+      <c r="J239" t="s">
+        <v>760</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tables/Dataset_variable_lists.xlsx
+++ b/tables/Dataset_variable_lists.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ni3054ch\Work Folders\Documents\register_reloc_age\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52DD4CC-FB00-4746-9A01-9BEEECD360A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF67EBCA-4512-4077-B3CF-8E32F1A54872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5040" yWindow="-21708" windowWidth="38616" windowHeight="21216" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="781">
   <si>
     <t>KAP19</t>
   </si>
@@ -2309,6 +2309,66 @@
   </si>
   <si>
     <t>https://www.lantmateriet.se/sv/fastighet-och-mark/information-om-fastigheter/Fastighetsregistret/</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>edatum</t>
+  </si>
+  <si>
+    <t>fdatum</t>
+  </si>
+  <si>
+    <t>antal</t>
+  </si>
+  <si>
+    <t>atc</t>
+  </si>
+  <si>
+    <t>forpddd</t>
+  </si>
+  <si>
+    <t>Expeditionsdatum. Datum när patienten köpte varan</t>
+  </si>
+  <si>
+    <t>Förskrivningsdatum. Datum när receptet är utfärdat.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antal förpackningar som har hämtats ut. Vid dosdispenserade läkemedel kan antal förpackningar vara ett decimaltal. Negativa värden förekommer om information har korrigerats. Då krediteras den felaktiga raden genom att en ny rad med negativt värde registreras.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATC-kod enligt Världshälsoorganisationen, WHO. Klassifikationskod för gruppering av läkemedel i fem nivåer. ATC-koden klassificerar läkemedlen efter användningsområde och kemisk substans. ATC-koder har begynnelsebokstav A-V. Förbrukningsartiklar har istället varugrupperingskoder (tilldelas av Tandvårds- och läkemedelsförmånsverket, TLV) och börjar på Y (även dessa koder finns dock i variabeln ATC). </t>
+  </si>
+  <si>
+    <t>Förpackningens DDD. Anger hur många Definierade DygnsDoser förpackningen innehåller (antal dagar). DDD är den genomsnittliga dygnsdosen då läkemedlet används av en vuxen vid medlets huvudindikation. Uppgift om DDD saknas för licensläkemedel sedan hösten 2013.</t>
+  </si>
+  <si>
+    <t>Expedition date. Date when the patient bought the item</t>
+  </si>
+  <si>
+    <t>Date of prescription. Date when the recipe is issued.</t>
+  </si>
+  <si>
+    <t>Number of packages that have been collected. In dose -dispensed drugs, the number of packages may be a decimal number. Negative values ​​exist if information has been corrected. Then the incorrect row is credited by registering a new line with negative value.</t>
+  </si>
+  <si>
+    <t>ATC code according to the World Health Organization, WHO. Classification code for grouping of drugs in five levels. The ATC code classifies the drugs according to the scope and chemical substance. ATC codes have initial letter A-V. Instead, consumables have goods group codes (allocated by the Dental Care and Medicines Benefit Agency, TLV) and start at Y (also these codes are in the variable ATC).</t>
+  </si>
+  <si>
+    <t>Packaging DDD. Specifies how many defined daily doses the package contains (number of days). DDD is the average daily dose when the drug is used by an adult at the main indication of the means. Information on DDD has been missing for licensed drugs since autumn 2013.</t>
+  </si>
+  <si>
+    <t>Lakemedelsregistret</t>
+  </si>
+  <si>
+    <t>Prescription dataset using ATC codes</t>
+  </si>
+  <si>
+    <t>Ut_best_39003_2020_lmed_xxx</t>
+  </si>
+  <si>
+    <t>https://www.socialstyrelsen.se/statistik-och-data/register/lakemedelsregistret/</t>
   </si>
 </sst>
 </file>
@@ -2362,11 +2422,22 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2375,7 +2446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2401,6 +2472,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2717,11 +2794,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E10C4C-262F-4490-9747-CFF1F93D48D6}">
-  <dimension ref="A1:K239"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I232" sqref="I232"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10006,6 +10083,230 @@
       </c>
       <c r="J239" t="s">
         <v>760</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>664</v>
+      </c>
+      <c r="B240" t="s">
+        <v>251</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="D240" t="s">
+        <v>761</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F240" t="s">
+        <v>761</v>
+      </c>
+      <c r="G240" t="s">
+        <v>778</v>
+      </c>
+      <c r="H240" t="s">
+        <v>761</v>
+      </c>
+      <c r="I240" t="s">
+        <v>779</v>
+      </c>
+      <c r="J240" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A241" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="B241" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="C241" t="s">
+        <v>772</v>
+      </c>
+      <c r="D241" t="s">
+        <v>761</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F241" t="s">
+        <v>761</v>
+      </c>
+      <c r="G241" t="s">
+        <v>778</v>
+      </c>
+      <c r="H241" t="s">
+        <v>761</v>
+      </c>
+      <c r="I241" t="s">
+        <v>779</v>
+      </c>
+      <c r="J241" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A242" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="B242" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="C242" t="s">
+        <v>773</v>
+      </c>
+      <c r="D242" t="s">
+        <v>761</v>
+      </c>
+      <c r="E242" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F242" t="s">
+        <v>761</v>
+      </c>
+      <c r="G242" t="s">
+        <v>778</v>
+      </c>
+      <c r="H242" t="s">
+        <v>761</v>
+      </c>
+      <c r="I242" t="s">
+        <v>779</v>
+      </c>
+      <c r="J242" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A243" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="B243" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="C243" t="s">
+        <v>774</v>
+      </c>
+      <c r="D243" t="s">
+        <v>761</v>
+      </c>
+      <c r="E243" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F243" t="s">
+        <v>761</v>
+      </c>
+      <c r="G243" t="s">
+        <v>778</v>
+      </c>
+      <c r="H243" t="s">
+        <v>761</v>
+      </c>
+      <c r="I243" t="s">
+        <v>779</v>
+      </c>
+      <c r="J243" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A244" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="B244" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="C244" t="s">
+        <v>775</v>
+      </c>
+      <c r="D244" t="s">
+        <v>761</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F244" t="s">
+        <v>761</v>
+      </c>
+      <c r="G244" t="s">
+        <v>778</v>
+      </c>
+      <c r="H244" t="s">
+        <v>761</v>
+      </c>
+      <c r="I244" t="s">
+        <v>779</v>
+      </c>
+      <c r="J244" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A245" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="B245" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="C245" t="s">
+        <v>776</v>
+      </c>
+      <c r="D245" t="s">
+        <v>761</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F245" t="s">
+        <v>761</v>
+      </c>
+      <c r="G245" t="s">
+        <v>778</v>
+      </c>
+      <c r="H245" t="s">
+        <v>761</v>
+      </c>
+      <c r="I245" t="s">
+        <v>779</v>
+      </c>
+      <c r="J245" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A246" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B246" t="s">
+        <v>105</v>
+      </c>
+      <c r="C246" t="s">
+        <v>512</v>
+      </c>
+      <c r="D246" t="s">
+        <v>761</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>777</v>
+      </c>
+      <c r="F246" t="s">
+        <v>761</v>
+      </c>
+      <c r="G246" t="s">
+        <v>778</v>
+      </c>
+      <c r="H246" t="s">
+        <v>761</v>
+      </c>
+      <c r="I246" t="s">
+        <v>779</v>
+      </c>
+      <c r="J246" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Dataset_variable_lists.xlsx
+++ b/tables/Dataset_variable_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ni3054ch\Work Folders\Documents\register_reloc_age\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF67EBCA-4512-4077-B3CF-8E32F1A54872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09352ACD-708B-4DFD-ADE2-6B770AE78632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
+    <workbookView xWindow="84" yWindow="-15540" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="827">
   <si>
     <t>KAP19</t>
   </si>
@@ -2369,6 +2369,144 @@
   </si>
   <si>
     <t>https://www.socialstyrelsen.se/statistik-och-data/register/lakemedelsregistret/</t>
+  </si>
+  <si>
+    <t>flu_anaemia_o</t>
+  </si>
+  <si>
+    <t>flu_asplenia_o</t>
+  </si>
+  <si>
+    <t>flu_asthma_o</t>
+  </si>
+  <si>
+    <t>flu_cancer_o</t>
+  </si>
+  <si>
+    <t>flu_card_dis_o</t>
+  </si>
+  <si>
+    <t>flu_liver_o</t>
+  </si>
+  <si>
+    <t>flu_dementia_o</t>
+  </si>
+  <si>
+    <t>flu_endocrine_o</t>
+  </si>
+  <si>
+    <t>flu_immunodefic_o</t>
+  </si>
+  <si>
+    <t>flu_lung_o</t>
+  </si>
+  <si>
+    <t>flu_neuromuscular_o</t>
+  </si>
+  <si>
+    <t>flu_obesity_o</t>
+  </si>
+  <si>
+    <t>flu_renal_o</t>
+  </si>
+  <si>
+    <t>flu_rheumatologic_o</t>
+  </si>
+  <si>
+    <t>flu_stroke_o</t>
+  </si>
+  <si>
+    <t>flu_tuberculosis_o</t>
+  </si>
+  <si>
+    <t>fall_risk_o</t>
+  </si>
+  <si>
+    <t>o_vard_entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable if individual has an entry in the openvard data set with an ICD code that matches the particular flu risk category. </t>
+  </si>
+  <si>
+    <t>clean/open_vard/transformed_data/yearly_flu_risk_categories</t>
+  </si>
+  <si>
+    <t>yearly_flu_risk_categories_o</t>
+  </si>
+  <si>
+    <t>Openvård ICD codes matched on flu risk categories.  Dummy variable if an individual has had a diagnosis which has matched with a particular flu risk category in a particular year.</t>
+  </si>
+  <si>
+    <t>Dummyvariabel Om individen har en post i OpenVard -datauppsättningen med en ICD -kod som matchar kategorin Särskilda influensarisker.</t>
+  </si>
+  <si>
+    <t>s_vard_entry</t>
+  </si>
+  <si>
+    <t>clean/sluten_vard/transformed_data/yearly_flu_risk_categories</t>
+  </si>
+  <si>
+    <t>Dummyvariabel Om individen har en post i slutenvard -datauppsättningen med en ICD -kod som matchar kategorin Särskilda influensarisker.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable if individual has an entry in the slutenvard data set with an ICD code that matches the particular flu risk category. </t>
+  </si>
+  <si>
+    <t>flu_anaemia_s</t>
+  </si>
+  <si>
+    <t>yearly_flu_risk_categories_s</t>
+  </si>
+  <si>
+    <t>flu_asplenia_s</t>
+  </si>
+  <si>
+    <t>flu_asthma_s</t>
+  </si>
+  <si>
+    <t>flu_cancer_s</t>
+  </si>
+  <si>
+    <t>flu_card_dis_s</t>
+  </si>
+  <si>
+    <t>flu_liver_s</t>
+  </si>
+  <si>
+    <t>flu_dementia_s</t>
+  </si>
+  <si>
+    <t>flu_endocrine_s</t>
+  </si>
+  <si>
+    <t>flu_immunodefic_s</t>
+  </si>
+  <si>
+    <t>flu_lung_s</t>
+  </si>
+  <si>
+    <t>flu_neuromuscular_s</t>
+  </si>
+  <si>
+    <t>flu_sbesity_s</t>
+  </si>
+  <si>
+    <t>flu_renal_s</t>
+  </si>
+  <si>
+    <t>flu_rheumatologic_s</t>
+  </si>
+  <si>
+    <t>flu_stroke_s</t>
+  </si>
+  <si>
+    <t>flu_tuberculosis_s</t>
+  </si>
+  <si>
+    <t>fall_risk_s</t>
+  </si>
+  <si>
+    <t>Slutenvård ICD codes matched on flu risk categories.  Dummy variable if an individual has had a diagnosis which has matched with a particular flu risk category in a particular year.</t>
   </si>
 </sst>
 </file>
@@ -2446,7 +2584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2475,9 +2613,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2794,11 +2929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E10C4C-262F-4490-9747-CFF1F93D48D6}">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E245" sqref="E245"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10098,7 +10233,7 @@
       <c r="D240" t="s">
         <v>761</v>
       </c>
-      <c r="E240" s="11" t="s">
+      <c r="E240" s="5" t="s">
         <v>777</v>
       </c>
       <c r="F240" t="s">
@@ -10130,7 +10265,7 @@
       <c r="D241" t="s">
         <v>761</v>
       </c>
-      <c r="E241" s="11" t="s">
+      <c r="E241" s="5" t="s">
         <v>777</v>
       </c>
       <c r="F241" t="s">
@@ -10162,7 +10297,7 @@
       <c r="D242" t="s">
         <v>761</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="E242" s="5" t="s">
         <v>777</v>
       </c>
       <c r="F242" t="s">
@@ -10194,7 +10329,7 @@
       <c r="D243" t="s">
         <v>761</v>
       </c>
-      <c r="E243" s="11" t="s">
+      <c r="E243" s="5" t="s">
         <v>777</v>
       </c>
       <c r="F243" t="s">
@@ -10226,7 +10361,7 @@
       <c r="D244" t="s">
         <v>761</v>
       </c>
-      <c r="E244" s="11" t="s">
+      <c r="E244" s="5" t="s">
         <v>777</v>
       </c>
       <c r="F244" t="s">
@@ -10258,7 +10393,7 @@
       <c r="D245" t="s">
         <v>761</v>
       </c>
-      <c r="E245" s="11" t="s">
+      <c r="E245" s="5" t="s">
         <v>777</v>
       </c>
       <c r="F245" t="s">
@@ -10290,7 +10425,7 @@
       <c r="D246" t="s">
         <v>761</v>
       </c>
-      <c r="E246" s="11" t="s">
+      <c r="E246" s="5" t="s">
         <v>777</v>
       </c>
       <c r="F246" t="s">
@@ -10307,6 +10442,1158 @@
       </c>
       <c r="J246" t="s">
         <v>780</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A247" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="B247" t="s">
+        <v>803</v>
+      </c>
+      <c r="C247" t="s">
+        <v>799</v>
+      </c>
+      <c r="D247" t="s">
+        <v>800</v>
+      </c>
+      <c r="E247" t="s">
+        <v>656</v>
+      </c>
+      <c r="F247" t="s">
+        <v>801</v>
+      </c>
+      <c r="G247" t="s">
+        <v>802</v>
+      </c>
+      <c r="H247">
+        <v>34302623</v>
+      </c>
+      <c r="I247" t="s">
+        <v>761</v>
+      </c>
+      <c r="J247" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A248" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="B248" t="s">
+        <v>803</v>
+      </c>
+      <c r="C248" t="s">
+        <v>799</v>
+      </c>
+      <c r="D248" t="s">
+        <v>800</v>
+      </c>
+      <c r="E248" t="s">
+        <v>656</v>
+      </c>
+      <c r="F248" t="s">
+        <v>801</v>
+      </c>
+      <c r="G248" t="s">
+        <v>802</v>
+      </c>
+      <c r="H248">
+        <v>34302623</v>
+      </c>
+      <c r="I248" t="s">
+        <v>761</v>
+      </c>
+      <c r="J248" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A249" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B249" t="s">
+        <v>803</v>
+      </c>
+      <c r="C249" t="s">
+        <v>799</v>
+      </c>
+      <c r="D249" t="s">
+        <v>800</v>
+      </c>
+      <c r="E249" t="s">
+        <v>656</v>
+      </c>
+      <c r="F249" t="s">
+        <v>801</v>
+      </c>
+      <c r="G249" t="s">
+        <v>802</v>
+      </c>
+      <c r="H249">
+        <v>34302623</v>
+      </c>
+      <c r="I249" t="s">
+        <v>761</v>
+      </c>
+      <c r="J249" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A250" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B250" t="s">
+        <v>803</v>
+      </c>
+      <c r="C250" t="s">
+        <v>799</v>
+      </c>
+      <c r="D250" t="s">
+        <v>800</v>
+      </c>
+      <c r="E250" t="s">
+        <v>656</v>
+      </c>
+      <c r="F250" t="s">
+        <v>801</v>
+      </c>
+      <c r="G250" t="s">
+        <v>802</v>
+      </c>
+      <c r="H250">
+        <v>34302623</v>
+      </c>
+      <c r="I250" t="s">
+        <v>761</v>
+      </c>
+      <c r="J250" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A251" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="B251" t="s">
+        <v>803</v>
+      </c>
+      <c r="C251" t="s">
+        <v>799</v>
+      </c>
+      <c r="D251" t="s">
+        <v>800</v>
+      </c>
+      <c r="E251" t="s">
+        <v>656</v>
+      </c>
+      <c r="F251" t="s">
+        <v>801</v>
+      </c>
+      <c r="G251" t="s">
+        <v>802</v>
+      </c>
+      <c r="H251">
+        <v>34302623</v>
+      </c>
+      <c r="I251" t="s">
+        <v>761</v>
+      </c>
+      <c r="J251" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B252" t="s">
+        <v>803</v>
+      </c>
+      <c r="C252" t="s">
+        <v>799</v>
+      </c>
+      <c r="D252" t="s">
+        <v>800</v>
+      </c>
+      <c r="E252" t="s">
+        <v>656</v>
+      </c>
+      <c r="F252" t="s">
+        <v>801</v>
+      </c>
+      <c r="G252" t="s">
+        <v>802</v>
+      </c>
+      <c r="H252">
+        <v>34302623</v>
+      </c>
+      <c r="I252" t="s">
+        <v>761</v>
+      </c>
+      <c r="J252" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B253" t="s">
+        <v>803</v>
+      </c>
+      <c r="C253" t="s">
+        <v>799</v>
+      </c>
+      <c r="D253" t="s">
+        <v>800</v>
+      </c>
+      <c r="E253" t="s">
+        <v>656</v>
+      </c>
+      <c r="F253" t="s">
+        <v>801</v>
+      </c>
+      <c r="G253" t="s">
+        <v>802</v>
+      </c>
+      <c r="H253">
+        <v>34302623</v>
+      </c>
+      <c r="I253" t="s">
+        <v>761</v>
+      </c>
+      <c r="J253" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B254" t="s">
+        <v>803</v>
+      </c>
+      <c r="C254" t="s">
+        <v>799</v>
+      </c>
+      <c r="D254" t="s">
+        <v>800</v>
+      </c>
+      <c r="E254" t="s">
+        <v>656</v>
+      </c>
+      <c r="F254" t="s">
+        <v>801</v>
+      </c>
+      <c r="G254" t="s">
+        <v>802</v>
+      </c>
+      <c r="H254">
+        <v>34302623</v>
+      </c>
+      <c r="I254" t="s">
+        <v>761</v>
+      </c>
+      <c r="J254" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B255" t="s">
+        <v>803</v>
+      </c>
+      <c r="C255" t="s">
+        <v>799</v>
+      </c>
+      <c r="D255" t="s">
+        <v>800</v>
+      </c>
+      <c r="E255" t="s">
+        <v>656</v>
+      </c>
+      <c r="F255" t="s">
+        <v>801</v>
+      </c>
+      <c r="G255" t="s">
+        <v>802</v>
+      </c>
+      <c r="H255">
+        <v>34302623</v>
+      </c>
+      <c r="I255" t="s">
+        <v>761</v>
+      </c>
+      <c r="J255" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B256" t="s">
+        <v>803</v>
+      </c>
+      <c r="C256" t="s">
+        <v>799</v>
+      </c>
+      <c r="D256" t="s">
+        <v>800</v>
+      </c>
+      <c r="E256" t="s">
+        <v>656</v>
+      </c>
+      <c r="F256" t="s">
+        <v>801</v>
+      </c>
+      <c r="G256" t="s">
+        <v>802</v>
+      </c>
+      <c r="H256">
+        <v>34302623</v>
+      </c>
+      <c r="I256" t="s">
+        <v>761</v>
+      </c>
+      <c r="J256" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B257" t="s">
+        <v>803</v>
+      </c>
+      <c r="C257" t="s">
+        <v>799</v>
+      </c>
+      <c r="D257" t="s">
+        <v>800</v>
+      </c>
+      <c r="E257" t="s">
+        <v>656</v>
+      </c>
+      <c r="F257" t="s">
+        <v>801</v>
+      </c>
+      <c r="G257" t="s">
+        <v>802</v>
+      </c>
+      <c r="H257">
+        <v>34302623</v>
+      </c>
+      <c r="I257" t="s">
+        <v>761</v>
+      </c>
+      <c r="J257" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="B258" t="s">
+        <v>803</v>
+      </c>
+      <c r="C258" t="s">
+        <v>799</v>
+      </c>
+      <c r="D258" t="s">
+        <v>800</v>
+      </c>
+      <c r="E258" t="s">
+        <v>656</v>
+      </c>
+      <c r="F258" t="s">
+        <v>801</v>
+      </c>
+      <c r="G258" t="s">
+        <v>802</v>
+      </c>
+      <c r="H258">
+        <v>34302623</v>
+      </c>
+      <c r="I258" t="s">
+        <v>761</v>
+      </c>
+      <c r="J258" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="B259" t="s">
+        <v>803</v>
+      </c>
+      <c r="C259" t="s">
+        <v>799</v>
+      </c>
+      <c r="D259" t="s">
+        <v>800</v>
+      </c>
+      <c r="E259" t="s">
+        <v>656</v>
+      </c>
+      <c r="F259" t="s">
+        <v>801</v>
+      </c>
+      <c r="G259" t="s">
+        <v>802</v>
+      </c>
+      <c r="H259">
+        <v>34302623</v>
+      </c>
+      <c r="I259" t="s">
+        <v>761</v>
+      </c>
+      <c r="J259" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="B260" t="s">
+        <v>803</v>
+      </c>
+      <c r="C260" t="s">
+        <v>799</v>
+      </c>
+      <c r="D260" t="s">
+        <v>800</v>
+      </c>
+      <c r="E260" t="s">
+        <v>656</v>
+      </c>
+      <c r="F260" t="s">
+        <v>801</v>
+      </c>
+      <c r="G260" t="s">
+        <v>802</v>
+      </c>
+      <c r="H260">
+        <v>34302623</v>
+      </c>
+      <c r="I260" t="s">
+        <v>761</v>
+      </c>
+      <c r="J260" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="B261" t="s">
+        <v>803</v>
+      </c>
+      <c r="C261" t="s">
+        <v>799</v>
+      </c>
+      <c r="D261" t="s">
+        <v>800</v>
+      </c>
+      <c r="E261" t="s">
+        <v>656</v>
+      </c>
+      <c r="F261" t="s">
+        <v>801</v>
+      </c>
+      <c r="G261" t="s">
+        <v>802</v>
+      </c>
+      <c r="H261">
+        <v>34302623</v>
+      </c>
+      <c r="I261" t="s">
+        <v>761</v>
+      </c>
+      <c r="J261" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="B262" t="s">
+        <v>803</v>
+      </c>
+      <c r="C262" t="s">
+        <v>799</v>
+      </c>
+      <c r="D262" t="s">
+        <v>800</v>
+      </c>
+      <c r="E262" t="s">
+        <v>656</v>
+      </c>
+      <c r="F262" t="s">
+        <v>801</v>
+      </c>
+      <c r="G262" t="s">
+        <v>802</v>
+      </c>
+      <c r="H262">
+        <v>34302623</v>
+      </c>
+      <c r="I262" t="s">
+        <v>761</v>
+      </c>
+      <c r="J262" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="B263" t="s">
+        <v>803</v>
+      </c>
+      <c r="C263" t="s">
+        <v>799</v>
+      </c>
+      <c r="D263" t="s">
+        <v>800</v>
+      </c>
+      <c r="E263" t="s">
+        <v>656</v>
+      </c>
+      <c r="F263" t="s">
+        <v>801</v>
+      </c>
+      <c r="G263" t="s">
+        <v>802</v>
+      </c>
+      <c r="H263">
+        <v>34302623</v>
+      </c>
+      <c r="I263" t="s">
+        <v>761</v>
+      </c>
+      <c r="J263" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="B264" t="s">
+        <v>803</v>
+      </c>
+      <c r="C264" t="s">
+        <v>799</v>
+      </c>
+      <c r="D264" t="s">
+        <v>800</v>
+      </c>
+      <c r="E264" t="s">
+        <v>656</v>
+      </c>
+      <c r="F264" t="s">
+        <v>801</v>
+      </c>
+      <c r="G264" t="s">
+        <v>802</v>
+      </c>
+      <c r="H264">
+        <v>34302623</v>
+      </c>
+      <c r="I264" t="s">
+        <v>761</v>
+      </c>
+      <c r="J264" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="B265" t="s">
+        <v>806</v>
+      </c>
+      <c r="C265" t="s">
+        <v>807</v>
+      </c>
+      <c r="D265" t="s">
+        <v>805</v>
+      </c>
+      <c r="E265" t="s">
+        <v>656</v>
+      </c>
+      <c r="F265" t="s">
+        <v>809</v>
+      </c>
+      <c r="G265" t="s">
+        <v>826</v>
+      </c>
+      <c r="H265">
+        <v>19890936</v>
+      </c>
+      <c r="I265" t="s">
+        <v>761</v>
+      </c>
+      <c r="J265" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="B266" t="s">
+        <v>806</v>
+      </c>
+      <c r="C266" t="s">
+        <v>807</v>
+      </c>
+      <c r="D266" t="s">
+        <v>805</v>
+      </c>
+      <c r="E266" t="s">
+        <v>656</v>
+      </c>
+      <c r="F266" t="s">
+        <v>809</v>
+      </c>
+      <c r="G266" t="s">
+        <v>826</v>
+      </c>
+      <c r="H266">
+        <v>19890936</v>
+      </c>
+      <c r="I266" t="s">
+        <v>761</v>
+      </c>
+      <c r="J266" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="B267" t="s">
+        <v>806</v>
+      </c>
+      <c r="C267" t="s">
+        <v>807</v>
+      </c>
+      <c r="D267" t="s">
+        <v>805</v>
+      </c>
+      <c r="E267" t="s">
+        <v>656</v>
+      </c>
+      <c r="F267" t="s">
+        <v>809</v>
+      </c>
+      <c r="G267" t="s">
+        <v>826</v>
+      </c>
+      <c r="H267">
+        <v>19890936</v>
+      </c>
+      <c r="I267" t="s">
+        <v>761</v>
+      </c>
+      <c r="J267" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="B268" t="s">
+        <v>806</v>
+      </c>
+      <c r="C268" t="s">
+        <v>807</v>
+      </c>
+      <c r="D268" t="s">
+        <v>805</v>
+      </c>
+      <c r="E268" t="s">
+        <v>656</v>
+      </c>
+      <c r="F268" t="s">
+        <v>809</v>
+      </c>
+      <c r="G268" t="s">
+        <v>826</v>
+      </c>
+      <c r="H268">
+        <v>19890936</v>
+      </c>
+      <c r="I268" t="s">
+        <v>761</v>
+      </c>
+      <c r="J268" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="B269" t="s">
+        <v>806</v>
+      </c>
+      <c r="C269" t="s">
+        <v>807</v>
+      </c>
+      <c r="D269" t="s">
+        <v>805</v>
+      </c>
+      <c r="E269" t="s">
+        <v>656</v>
+      </c>
+      <c r="F269" t="s">
+        <v>809</v>
+      </c>
+      <c r="G269" t="s">
+        <v>826</v>
+      </c>
+      <c r="H269">
+        <v>19890936</v>
+      </c>
+      <c r="I269" t="s">
+        <v>761</v>
+      </c>
+      <c r="J269" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B270" t="s">
+        <v>806</v>
+      </c>
+      <c r="C270" t="s">
+        <v>807</v>
+      </c>
+      <c r="D270" t="s">
+        <v>805</v>
+      </c>
+      <c r="E270" t="s">
+        <v>656</v>
+      </c>
+      <c r="F270" t="s">
+        <v>809</v>
+      </c>
+      <c r="G270" t="s">
+        <v>826</v>
+      </c>
+      <c r="H270">
+        <v>19890936</v>
+      </c>
+      <c r="I270" t="s">
+        <v>761</v>
+      </c>
+      <c r="J270" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="B271" t="s">
+        <v>806</v>
+      </c>
+      <c r="C271" t="s">
+        <v>807</v>
+      </c>
+      <c r="D271" t="s">
+        <v>805</v>
+      </c>
+      <c r="E271" t="s">
+        <v>656</v>
+      </c>
+      <c r="F271" t="s">
+        <v>809</v>
+      </c>
+      <c r="G271" t="s">
+        <v>826</v>
+      </c>
+      <c r="H271">
+        <v>19890936</v>
+      </c>
+      <c r="I271" t="s">
+        <v>761</v>
+      </c>
+      <c r="J271" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="B272" t="s">
+        <v>806</v>
+      </c>
+      <c r="C272" t="s">
+        <v>807</v>
+      </c>
+      <c r="D272" t="s">
+        <v>805</v>
+      </c>
+      <c r="E272" t="s">
+        <v>656</v>
+      </c>
+      <c r="F272" t="s">
+        <v>809</v>
+      </c>
+      <c r="G272" t="s">
+        <v>826</v>
+      </c>
+      <c r="H272">
+        <v>19890936</v>
+      </c>
+      <c r="I272" t="s">
+        <v>761</v>
+      </c>
+      <c r="J272" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="B273" t="s">
+        <v>806</v>
+      </c>
+      <c r="C273" t="s">
+        <v>807</v>
+      </c>
+      <c r="D273" t="s">
+        <v>805</v>
+      </c>
+      <c r="E273" t="s">
+        <v>656</v>
+      </c>
+      <c r="F273" t="s">
+        <v>809</v>
+      </c>
+      <c r="G273" t="s">
+        <v>826</v>
+      </c>
+      <c r="H273">
+        <v>19890936</v>
+      </c>
+      <c r="I273" t="s">
+        <v>761</v>
+      </c>
+      <c r="J273" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="B274" t="s">
+        <v>806</v>
+      </c>
+      <c r="C274" t="s">
+        <v>807</v>
+      </c>
+      <c r="D274" t="s">
+        <v>805</v>
+      </c>
+      <c r="E274" t="s">
+        <v>656</v>
+      </c>
+      <c r="F274" t="s">
+        <v>809</v>
+      </c>
+      <c r="G274" t="s">
+        <v>826</v>
+      </c>
+      <c r="H274">
+        <v>19890936</v>
+      </c>
+      <c r="I274" t="s">
+        <v>761</v>
+      </c>
+      <c r="J274" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="B275" t="s">
+        <v>806</v>
+      </c>
+      <c r="C275" t="s">
+        <v>807</v>
+      </c>
+      <c r="D275" t="s">
+        <v>805</v>
+      </c>
+      <c r="E275" t="s">
+        <v>656</v>
+      </c>
+      <c r="F275" t="s">
+        <v>809</v>
+      </c>
+      <c r="G275" t="s">
+        <v>826</v>
+      </c>
+      <c r="H275">
+        <v>19890936</v>
+      </c>
+      <c r="I275" t="s">
+        <v>761</v>
+      </c>
+      <c r="J275" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="B276" t="s">
+        <v>806</v>
+      </c>
+      <c r="C276" t="s">
+        <v>807</v>
+      </c>
+      <c r="D276" t="s">
+        <v>805</v>
+      </c>
+      <c r="E276" t="s">
+        <v>656</v>
+      </c>
+      <c r="F276" t="s">
+        <v>809</v>
+      </c>
+      <c r="G276" t="s">
+        <v>826</v>
+      </c>
+      <c r="H276">
+        <v>19890936</v>
+      </c>
+      <c r="I276" t="s">
+        <v>761</v>
+      </c>
+      <c r="J276" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="B277" t="s">
+        <v>806</v>
+      </c>
+      <c r="C277" t="s">
+        <v>807</v>
+      </c>
+      <c r="D277" t="s">
+        <v>805</v>
+      </c>
+      <c r="E277" t="s">
+        <v>656</v>
+      </c>
+      <c r="F277" t="s">
+        <v>809</v>
+      </c>
+      <c r="G277" t="s">
+        <v>826</v>
+      </c>
+      <c r="H277">
+        <v>19890936</v>
+      </c>
+      <c r="I277" t="s">
+        <v>761</v>
+      </c>
+      <c r="J277" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="B278" t="s">
+        <v>806</v>
+      </c>
+      <c r="C278" t="s">
+        <v>807</v>
+      </c>
+      <c r="D278" t="s">
+        <v>805</v>
+      </c>
+      <c r="E278" t="s">
+        <v>656</v>
+      </c>
+      <c r="F278" t="s">
+        <v>809</v>
+      </c>
+      <c r="G278" t="s">
+        <v>826</v>
+      </c>
+      <c r="H278">
+        <v>19890936</v>
+      </c>
+      <c r="I278" t="s">
+        <v>761</v>
+      </c>
+      <c r="J278" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B279" t="s">
+        <v>806</v>
+      </c>
+      <c r="C279" t="s">
+        <v>807</v>
+      </c>
+      <c r="D279" t="s">
+        <v>805</v>
+      </c>
+      <c r="E279" t="s">
+        <v>656</v>
+      </c>
+      <c r="F279" t="s">
+        <v>809</v>
+      </c>
+      <c r="G279" t="s">
+        <v>826</v>
+      </c>
+      <c r="H279">
+        <v>19890936</v>
+      </c>
+      <c r="I279" t="s">
+        <v>761</v>
+      </c>
+      <c r="J279" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B280" t="s">
+        <v>806</v>
+      </c>
+      <c r="C280" t="s">
+        <v>807</v>
+      </c>
+      <c r="D280" t="s">
+        <v>805</v>
+      </c>
+      <c r="E280" t="s">
+        <v>656</v>
+      </c>
+      <c r="F280" t="s">
+        <v>809</v>
+      </c>
+      <c r="G280" t="s">
+        <v>826</v>
+      </c>
+      <c r="H280">
+        <v>19890936</v>
+      </c>
+      <c r="I280" t="s">
+        <v>761</v>
+      </c>
+      <c r="J280" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="B281" t="s">
+        <v>806</v>
+      </c>
+      <c r="C281" t="s">
+        <v>807</v>
+      </c>
+      <c r="D281" t="s">
+        <v>805</v>
+      </c>
+      <c r="E281" t="s">
+        <v>656</v>
+      </c>
+      <c r="F281" t="s">
+        <v>809</v>
+      </c>
+      <c r="G281" t="s">
+        <v>826</v>
+      </c>
+      <c r="H281">
+        <v>19890936</v>
+      </c>
+      <c r="I281" t="s">
+        <v>761</v>
+      </c>
+      <c r="J281" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="B282" t="s">
+        <v>806</v>
+      </c>
+      <c r="C282" t="s">
+        <v>807</v>
+      </c>
+      <c r="D282" t="s">
+        <v>805</v>
+      </c>
+      <c r="E282" t="s">
+        <v>656</v>
+      </c>
+      <c r="F282" t="s">
+        <v>809</v>
+      </c>
+      <c r="G282" t="s">
+        <v>826</v>
+      </c>
+      <c r="H282">
+        <v>19890936</v>
+      </c>
+      <c r="I282" t="s">
+        <v>761</v>
+      </c>
+      <c r="J282" t="s">
+        <v>761</v>
       </c>
     </row>
   </sheetData>

--- a/tables/Dataset_variable_lists.xlsx
+++ b/tables/Dataset_variable_lists.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ni3054ch\Work Folders\Documents\register_reloc_age\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09352ACD-708B-4DFD-ADE2-6B770AE78632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C07D6F-F319-49BA-A401-6E970D16E786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="-15540" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="833">
   <si>
     <t>KAP19</t>
   </si>
@@ -2419,12 +2419,6 @@
     <t>flu_tuberculosis_o</t>
   </si>
   <si>
-    <t>fall_risk_o</t>
-  </si>
-  <si>
-    <t>o_vard_entry</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dummy variable if individual has an entry in the openvard data set with an ICD code that matches the particular flu risk category. </t>
   </si>
   <si>
@@ -2440,9 +2434,6 @@
     <t>Dummyvariabel Om individen har en post i OpenVard -datauppsättningen med en ICD -kod som matchar kategorin Särskilda influensarisker.</t>
   </si>
   <si>
-    <t>s_vard_entry</t>
-  </si>
-  <si>
     <t>clean/sluten_vard/transformed_data/yearly_flu_risk_categories</t>
   </si>
   <si>
@@ -2503,10 +2494,37 @@
     <t>flu_tuberculosis_s</t>
   </si>
   <si>
-    <t>fall_risk_s</t>
-  </si>
-  <si>
     <t>Slutenvård ICD codes matched on flu risk categories.  Dummy variable if an individual has had a diagnosis which has matched with a particular flu risk category in a particular year.</t>
+  </si>
+  <si>
+    <t>vard_entry_s</t>
+  </si>
+  <si>
+    <t>flu_risk_hosp_s</t>
+  </si>
+  <si>
+    <t>Dummy variable if individual has an entry in the slutenvard data set in a particular year for any reason.</t>
+  </si>
+  <si>
+    <t>Dummyvariabel Om individen har en post i Slutenvard -datauppsättningen under ett visst år av någon anledning.</t>
+  </si>
+  <si>
+    <t>vard_entry_o</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable if individual has an entry in the slutenvard data set with an ICD code that matches any flu risk category. </t>
+  </si>
+  <si>
+    <t>Dummyvariabel Om individen har en post i Slutenvard -datauppsättningen med en ICD -kod som matchar någon influensriskkategori.</t>
+  </si>
+  <si>
+    <t>flu_risk_hosp_o</t>
+  </si>
+  <si>
+    <t>Dummyvariabel Om individen har en post i openvard -datauppsättningen med en ICD -kod som matchar någon influensriskkategori.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dummy variable if individual has an entry in the openvard data set with an ICD code that matches any flu risk category. </t>
   </si>
 </sst>
 </file>
@@ -2931,9 +2949,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E10C4C-262F-4490-9747-CFF1F93D48D6}">
   <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A245" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I261" sqref="I261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10449,22 +10467,22 @@
         <v>781</v>
       </c>
       <c r="B247" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C247" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D247" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E247" t="s">
         <v>656</v>
       </c>
       <c r="F247" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G247" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H247">
         <v>34302623</v>
@@ -10481,22 +10499,22 @@
         <v>782</v>
       </c>
       <c r="B248" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C248" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D248" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E248" t="s">
         <v>656</v>
       </c>
       <c r="F248" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G248" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H248">
         <v>34302623</v>
@@ -10513,22 +10531,22 @@
         <v>783</v>
       </c>
       <c r="B249" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C249" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D249" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E249" t="s">
         <v>656</v>
       </c>
       <c r="F249" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G249" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H249">
         <v>34302623</v>
@@ -10545,22 +10563,22 @@
         <v>784</v>
       </c>
       <c r="B250" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C250" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D250" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E250" t="s">
         <v>656</v>
       </c>
       <c r="F250" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G250" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H250">
         <v>34302623</v>
@@ -10577,22 +10595,22 @@
         <v>785</v>
       </c>
       <c r="B251" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C251" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D251" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E251" t="s">
         <v>656</v>
       </c>
       <c r="F251" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G251" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H251">
         <v>34302623</v>
@@ -10609,22 +10627,22 @@
         <v>786</v>
       </c>
       <c r="B252" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C252" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D252" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E252" t="s">
         <v>656</v>
       </c>
       <c r="F252" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G252" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H252">
         <v>34302623</v>
@@ -10641,22 +10659,22 @@
         <v>787</v>
       </c>
       <c r="B253" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C253" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D253" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E253" t="s">
         <v>656</v>
       </c>
       <c r="F253" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G253" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H253">
         <v>34302623</v>
@@ -10673,22 +10691,22 @@
         <v>788</v>
       </c>
       <c r="B254" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C254" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D254" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E254" t="s">
         <v>656</v>
       </c>
       <c r="F254" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G254" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H254">
         <v>34302623</v>
@@ -10705,22 +10723,22 @@
         <v>789</v>
       </c>
       <c r="B255" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C255" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D255" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E255" t="s">
         <v>656</v>
       </c>
       <c r="F255" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G255" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H255">
         <v>34302623</v>
@@ -10737,22 +10755,22 @@
         <v>790</v>
       </c>
       <c r="B256" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C256" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D256" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E256" t="s">
         <v>656</v>
       </c>
       <c r="F256" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G256" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H256">
         <v>34302623</v>
@@ -10769,22 +10787,22 @@
         <v>791</v>
       </c>
       <c r="B257" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C257" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D257" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E257" t="s">
         <v>656</v>
       </c>
       <c r="F257" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G257" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H257">
         <v>34302623</v>
@@ -10801,22 +10819,22 @@
         <v>792</v>
       </c>
       <c r="B258" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C258" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D258" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E258" t="s">
         <v>656</v>
       </c>
       <c r="F258" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G258" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H258">
         <v>34302623</v>
@@ -10833,22 +10851,22 @@
         <v>793</v>
       </c>
       <c r="B259" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C259" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D259" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E259" t="s">
         <v>656</v>
       </c>
       <c r="F259" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G259" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H259">
         <v>34302623</v>
@@ -10865,22 +10883,22 @@
         <v>794</v>
       </c>
       <c r="B260" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C260" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D260" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E260" t="s">
         <v>656</v>
       </c>
       <c r="F260" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G260" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H260">
         <v>34302623</v>
@@ -10897,22 +10915,22 @@
         <v>795</v>
       </c>
       <c r="B261" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C261" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D261" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E261" t="s">
         <v>656</v>
       </c>
       <c r="F261" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G261" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H261">
         <v>34302623</v>
@@ -10929,22 +10947,22 @@
         <v>796</v>
       </c>
       <c r="B262" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C262" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D262" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E262" t="s">
         <v>656</v>
       </c>
       <c r="F262" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G262" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H262">
         <v>34302623</v>
@@ -10958,28 +10976,25 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>797</v>
+        <v>830</v>
       </c>
       <c r="B263" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="C263" t="s">
-        <v>799</v>
-      </c>
-      <c r="D263" t="s">
-        <v>800</v>
+        <v>832</v>
       </c>
       <c r="E263" t="s">
         <v>656</v>
       </c>
       <c r="F263" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="G263" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="H263">
-        <v>34302623</v>
+        <v>19890936</v>
       </c>
       <c r="I263" t="s">
         <v>761</v>
@@ -10990,25 +11005,25 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="B264" t="s">
+        <v>826</v>
+      </c>
+      <c r="C264" t="s">
+        <v>825</v>
+      </c>
+      <c r="D264" t="s">
         <v>798</v>
-      </c>
-      <c r="B264" t="s">
-        <v>803</v>
-      </c>
-      <c r="C264" t="s">
-        <v>799</v>
-      </c>
-      <c r="D264" t="s">
-        <v>800</v>
       </c>
       <c r="E264" t="s">
         <v>656</v>
       </c>
       <c r="F264" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G264" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="H264">
         <v>34302623</v>
@@ -11022,25 +11037,25 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B265" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C265" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D265" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E265" t="s">
         <v>656</v>
       </c>
       <c r="F265" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G265" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H265">
         <v>19890936</v>
@@ -11054,25 +11069,25 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B266" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C266" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D266" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E266" t="s">
         <v>656</v>
       </c>
       <c r="F266" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G266" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H266">
         <v>19890936</v>
@@ -11086,25 +11101,25 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="B267" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C267" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D267" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E267" t="s">
         <v>656</v>
       </c>
       <c r="F267" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G267" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H267">
         <v>19890936</v>
@@ -11118,25 +11133,25 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B268" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C268" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D268" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E268" t="s">
         <v>656</v>
       </c>
       <c r="F268" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G268" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H268">
         <v>19890936</v>
@@ -11150,25 +11165,25 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B269" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C269" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D269" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E269" t="s">
         <v>656</v>
       </c>
       <c r="F269" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G269" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H269">
         <v>19890936</v>
@@ -11182,25 +11197,25 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B270" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C270" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D270" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E270" t="s">
         <v>656</v>
       </c>
       <c r="F270" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G270" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H270">
         <v>19890936</v>
@@ -11214,25 +11229,25 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B271" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C271" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D271" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E271" t="s">
         <v>656</v>
       </c>
       <c r="F271" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G271" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H271">
         <v>19890936</v>
@@ -11246,25 +11261,25 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B272" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C272" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D272" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E272" t="s">
         <v>656</v>
       </c>
       <c r="F272" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G272" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H272">
         <v>19890936</v>
@@ -11278,25 +11293,25 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B273" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C273" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D273" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E273" t="s">
         <v>656</v>
       </c>
       <c r="F273" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G273" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H273">
         <v>19890936</v>
@@ -11310,25 +11325,25 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B274" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C274" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D274" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E274" t="s">
         <v>656</v>
       </c>
       <c r="F274" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G274" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H274">
         <v>19890936</v>
@@ -11342,25 +11357,25 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B275" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C275" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D275" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E275" t="s">
         <v>656</v>
       </c>
       <c r="F275" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G275" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H275">
         <v>19890936</v>
@@ -11374,25 +11389,25 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B276" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C276" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D276" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E276" t="s">
         <v>656</v>
       </c>
       <c r="F276" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G276" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H276">
         <v>19890936</v>
@@ -11406,25 +11421,25 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B277" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C277" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D277" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E277" t="s">
         <v>656</v>
       </c>
       <c r="F277" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G277" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H277">
         <v>19890936</v>
@@ -11438,25 +11453,25 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B278" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C278" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D278" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E278" t="s">
         <v>656</v>
       </c>
       <c r="F278" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G278" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H278">
         <v>19890936</v>
@@ -11470,25 +11485,25 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B279" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C279" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D279" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E279" t="s">
         <v>656</v>
       </c>
       <c r="F279" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G279" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H279">
         <v>19890936</v>
@@ -11502,25 +11517,25 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B280" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C280" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="D280" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E280" t="s">
         <v>656</v>
       </c>
       <c r="F280" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G280" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H280">
         <v>19890936</v>
@@ -11534,25 +11549,25 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="B281" t="s">
+        <v>826</v>
+      </c>
+      <c r="C281" t="s">
         <v>825</v>
       </c>
-      <c r="B281" t="s">
-        <v>806</v>
-      </c>
-      <c r="C281" t="s">
-        <v>807</v>
-      </c>
       <c r="D281" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E281" t="s">
         <v>656</v>
       </c>
       <c r="F281" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G281" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H281">
         <v>19890936</v>
@@ -11566,25 +11581,22 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
       <c r="B282" t="s">
-        <v>806</v>
+        <v>829</v>
       </c>
       <c r="C282" t="s">
-        <v>807</v>
-      </c>
-      <c r="D282" t="s">
-        <v>805</v>
+        <v>828</v>
       </c>
       <c r="E282" t="s">
         <v>656</v>
       </c>
       <c r="F282" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="G282" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="H282">
         <v>19890936</v>

--- a/tables/Dataset_variable_lists.xlsx
+++ b/tables/Dataset_variable_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ni3054ch\Work Folders\Documents\register_reloc_age\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C07D6F-F319-49BA-A401-6E970D16E786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7887C634-6EA1-4746-B2CF-8E613B98B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
+    <workbookView xWindow="-228" yWindow="-15408" windowWidth="23256" windowHeight="10524" xr2:uid="{CDDF98C2-6243-4313-A66C-2721754F5854}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="835">
   <si>
     <t>KAP19</t>
   </si>
@@ -2525,6 +2525,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dummy variable if individual has an entry in the openvard data set with an ICD code that matches any flu risk category. </t>
+  </si>
+  <si>
+    <t>Dummy variable if individual has an entry in the openvard data set in a particular year for any reason.</t>
+  </si>
+  <si>
+    <t>Dummyvariabel Om individen har en post i openvard -datauppsättningen under ett visst år av någon anledning.</t>
   </si>
 </sst>
 </file>
@@ -2950,8 +2956,8 @@
   <dimension ref="A1:K282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C266" sqref="C266"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C260" sqref="C260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11008,10 +11014,10 @@
         <v>827</v>
       </c>
       <c r="B264" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="C264" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="D264" t="s">
         <v>798</v>
